--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2387876740304083</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605109819854019</v>
+        <v>-1.604828857440867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06004028651261431</v>
+        <v>0.06269408275112727</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1887098253221399</v>
+        <v>-0.1863220383151268</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2152700931421912</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.541565093907989</v>
+        <v>-1.539661317780776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08576290699291016</v>
+        <v>0.08860873356422179</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1896085902404026</v>
+        <v>-0.1876993050462648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2005748355629003</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.648536220401145</v>
+        <v>-1.646111443944781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0989075406748922</v>
+        <v>0.1010954272535002</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1877528216963891</v>
+        <v>-0.185234391102308</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2007819856336138</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.69631871886647</v>
+        <v>-1.693963986261004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1408740384870111</v>
+        <v>0.143872544913089</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.218611466569489</v>
+        <v>-0.2161764589888369</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2114915516230249</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780264306643678</v>
+        <v>-1.781625046174042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2288774475589326</v>
+        <v>0.231894842214466</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2667795997195327</v>
+        <v>-0.2653141879176018</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2237788956500258</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.70613272808778</v>
+        <v>-1.708775506192443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3012901972343707</v>
+        <v>0.3061885447398585</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2768328598472802</v>
+        <v>-0.2762725090400971</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2275342782645208</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.535816776076999</v>
+        <v>-1.539224527474615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3724358615171618</v>
+        <v>0.3761521206625527</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2794331394356689</v>
+        <v>-0.2790380606362224</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2175767933716093</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.181416926801422</v>
+        <v>-1.183111358385502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4035290352393356</v>
+        <v>0.4057971967931299</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2743081331767139</v>
+        <v>-0.2750652363740595</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1928361735235619</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.783600908103007</v>
+        <v>-0.7852945526775266</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4426985010729032</v>
+        <v>0.4445054750241564</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2351433894005102</v>
+        <v>-0.2355164319322584</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1573623207826744</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2590432957383398</v>
+        <v>-0.2592841206638988</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4142984740672749</v>
+        <v>0.415371955108002</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1772635582720413</v>
+        <v>-0.1777955767350409</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1144767610614726</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3118959380736948</v>
+        <v>0.3123854580204193</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2880542704433532</v>
+        <v>0.2887499868949682</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1231928534171201</v>
+        <v>-0.1238224610656403</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06662965513973788</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8938611758304407</v>
+        <v>0.8950637264391144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09281136461809462</v>
+        <v>0.09258785390286993</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01021133490927799</v>
+        <v>-0.01044271572010919</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01391115431980531</v>
       </c>
       <c r="E14" t="n">
-        <v>1.595340111448426</v>
+        <v>1.60035493636889</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01159040393985784</v>
+        <v>0.011261433943506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08760450936483195</v>
+        <v>0.08748173587337051</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.0448926952634417</v>
       </c>
       <c r="E15" t="n">
-        <v>2.257879388024555</v>
+        <v>2.266649822568442</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1322560555175694</v>
+        <v>-0.1313478464845789</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2047083839513605</v>
+        <v>0.2043384894578549</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1120244785555349</v>
       </c>
       <c r="E16" t="n">
-        <v>2.858111117683995</v>
+        <v>2.86726561289348</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2582311018717486</v>
+        <v>-0.2574063158521871</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3081812529474252</v>
+        <v>0.3080018147675969</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1877614047102446</v>
       </c>
       <c r="E17" t="n">
-        <v>3.395437173160653</v>
+        <v>3.40363781278263</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3710489223909755</v>
+        <v>-0.3691270450438673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.393527717742591</v>
+        <v>0.3931688413829345</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2689789857200898</v>
       </c>
       <c r="E18" t="n">
-        <v>3.866744144632597</v>
+        <v>3.876526673471481</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5499928602151655</v>
+        <v>-0.5483086597553737</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4901410114080272</v>
+        <v>0.4894689052432318</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3574862358850238</v>
       </c>
       <c r="E19" t="n">
-        <v>4.24203752372432</v>
+        <v>4.252322164662899</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7516860963995143</v>
+        <v>-0.7499231949836576</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6112491906391447</v>
+        <v>0.6116049189605587</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4555882460445637</v>
       </c>
       <c r="E20" t="n">
-        <v>4.518002426166363</v>
+        <v>4.52760709084454</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9583571680549765</v>
+        <v>-0.9578479728692357</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7179330586426628</v>
+        <v>0.7182667506963786</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5645263166422609</v>
       </c>
       <c r="E21" t="n">
-        <v>4.725958684434367</v>
+        <v>4.736164624416881</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.07909781382127</v>
+        <v>-1.078306082203256</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8608776051435848</v>
+        <v>0.861334070688762</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6799777879022783</v>
       </c>
       <c r="E22" t="n">
-        <v>4.873217617346775</v>
+        <v>4.882409889015171</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.247337634611055</v>
+        <v>-1.245503115325179</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9609915173347937</v>
+        <v>0.9626867359284346</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7957902930104853</v>
       </c>
       <c r="E23" t="n">
-        <v>4.919909320561038</v>
+        <v>4.928053295494648</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.496965262105934</v>
+        <v>-1.497109284855533</v>
       </c>
       <c r="G23" t="n">
-        <v>1.015026019749925</v>
+        <v>1.015765808736936</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9047730205929229</v>
       </c>
       <c r="E24" t="n">
-        <v>4.969982016847855</v>
+        <v>4.977420831215123</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.704240757103976</v>
+        <v>-1.705365393766145</v>
       </c>
       <c r="G24" t="n">
-        <v>1.111091554761149</v>
+        <v>1.113063800720138</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.001164681183704</v>
       </c>
       <c r="E25" t="n">
-        <v>4.936795397694352</v>
+        <v>4.94325517216817</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.863009704840894</v>
+        <v>-1.867423254457022</v>
       </c>
       <c r="G25" t="n">
-        <v>1.158031952996578</v>
+        <v>1.160169470963304</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.081402397522132</v>
       </c>
       <c r="E26" t="n">
-        <v>4.92453378873942</v>
+        <v>4.931709741913429</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.925220449581622</v>
+        <v>-1.92919878291071</v>
       </c>
       <c r="G26" t="n">
-        <v>1.186482348614088</v>
+        <v>1.189362803606068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.142288562228057</v>
       </c>
       <c r="E27" t="n">
-        <v>4.831868135030206</v>
+        <v>4.836856201625607</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.01048427837292</v>
+        <v>-2.016268011634139</v>
       </c>
       <c r="G27" t="n">
-        <v>1.206876914368781</v>
+        <v>1.209477193957169</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.182144912048732</v>
       </c>
       <c r="E28" t="n">
-        <v>4.714372329682473</v>
+        <v>4.719497335941428</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.075048968709553</v>
+        <v>-2.081811741864221</v>
       </c>
       <c r="G28" t="n">
-        <v>1.195809985926916</v>
+        <v>1.197720845140175</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.199605928319061</v>
       </c>
       <c r="E29" t="n">
-        <v>4.592196965487114</v>
+        <v>4.596445243095504</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.167883042464746</v>
+        <v>-2.175579995967906</v>
       </c>
       <c r="G29" t="n">
-        <v>1.161343689227794</v>
+        <v>1.162865765718092</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.196562473817741</v>
       </c>
       <c r="E30" t="n">
-        <v>4.489042048353552</v>
+        <v>4.492136569946029</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.170321198083641</v>
+        <v>-2.178197589766629</v>
       </c>
       <c r="G30" t="n">
-        <v>1.114527638502948</v>
+        <v>1.115997772362243</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.175202442601977</v>
       </c>
       <c r="E31" t="n">
-        <v>4.30216977621537</v>
+        <v>4.304611079872507</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.135211127563908</v>
+        <v>-2.142647580902493</v>
       </c>
       <c r="G31" t="n">
-        <v>1.048706880907517</v>
+        <v>1.049674902667117</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.139535121820372</v>
       </c>
       <c r="E32" t="n">
-        <v>4.117619182281107</v>
+        <v>4.118516373180248</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.053752489998355</v>
+        <v>-2.060647480759212</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022309006224183</v>
+        <v>1.022460112059828</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.092434585744687</v>
       </c>
       <c r="E33" t="n">
-        <v>3.901523671136857</v>
+        <v>3.902189481225167</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.997825229589859</v>
+        <v>-2.004592724801892</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9398162380959355</v>
+        <v>0.9404773261268818</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.036844902811931</v>
       </c>
       <c r="E34" t="n">
-        <v>3.688563606082238</v>
+        <v>3.68759873236088</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.898456615452586</v>
+        <v>-1.905087958010626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.849566703737918</v>
+        <v>0.8495226312025216</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9741888270887517</v>
       </c>
       <c r="E35" t="n">
-        <v>3.448807439506596</v>
+        <v>3.448809013525717</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.834422369559831</v>
+        <v>-1.841368515942131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7801619046032855</v>
+        <v>0.7796865508286527</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9061499642435711</v>
       </c>
       <c r="E36" t="n">
-        <v>3.214314792872583</v>
+        <v>3.214862551526796</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.75346190904617</v>
+        <v>-1.759329852330379</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7269490401694731</v>
+        <v>0.7267365475880976</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.834106502838083</v>
       </c>
       <c r="E37" t="n">
-        <v>3.026675973422328</v>
+        <v>3.029334491718205</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.679626246085076</v>
+        <v>-1.684343581391614</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6657511767333024</v>
+        <v>0.6655591464005037</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7591279103105731</v>
       </c>
       <c r="E38" t="n">
-        <v>2.794089463944211</v>
+        <v>2.794541207432024</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.610754252423004</v>
+        <v>-1.616146054923019</v>
       </c>
       <c r="G38" t="n">
-        <v>0.585746932835831</v>
+        <v>0.5853424099216568</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6833269242748141</v>
       </c>
       <c r="E39" t="n">
-        <v>2.545676192201415</v>
+        <v>2.546090159230317</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.560536746377027</v>
+        <v>-1.565352457878646</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5275570199404659</v>
+        <v>0.5278482134779066</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6078445528045688</v>
       </c>
       <c r="E40" t="n">
-        <v>2.299724686364333</v>
+        <v>2.300234668559635</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.492295147373035</v>
+        <v>-1.495065421026524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5003469513905409</v>
+        <v>0.5006523111000732</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5353144222979959</v>
       </c>
       <c r="E41" t="n">
-        <v>2.098568190700348</v>
+        <v>2.098456435342736</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.468988646243936</v>
+        <v>-1.471688089036967</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273880170800115</v>
+        <v>0.4272243190913961</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4661232764064335</v>
       </c>
       <c r="E42" t="n">
-        <v>1.894218010239244</v>
+        <v>1.893813487325069</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.43301601324573</v>
+        <v>-1.436158542421407</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4107537830061058</v>
+        <v>0.4111708980732505</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4014194449473756</v>
       </c>
       <c r="E43" t="n">
-        <v>1.748880954673945</v>
+        <v>1.74893604534319</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.397809927559597</v>
+        <v>-1.401476605102667</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3658564615901249</v>
+        <v>0.3657242439839357</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3405859062821459</v>
       </c>
       <c r="E44" t="n">
-        <v>1.514950232866237</v>
+        <v>1.513650093072042</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.357794426448331</v>
+        <v>-1.361313933203559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3126184128503718</v>
+        <v>0.3127270201697415</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.283492216247092</v>
       </c>
       <c r="E45" t="n">
-        <v>1.317787023712991</v>
+        <v>1.315046656422806</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.304094403096476</v>
+        <v>-1.306682877541455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2951184682597507</v>
+        <v>0.2958582572467621</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.229600367357042</v>
       </c>
       <c r="E46" t="n">
-        <v>1.158042971130427</v>
+        <v>1.155759069385419</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.257263399189977</v>
+        <v>-1.26193744897068</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2719898312913585</v>
+        <v>0.2731451613263931</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1786535609467375</v>
       </c>
       <c r="E47" t="n">
-        <v>1.011108286157008</v>
+        <v>1.009170668618687</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.179694162873158</v>
+        <v>-1.183695319479504</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2429019579297217</v>
+        <v>0.2440903423663037</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.130675938813261</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8631174343531957</v>
+        <v>0.8610192668645018</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.159155574368866</v>
+        <v>-1.165360357745033</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2040488699395355</v>
+        <v>0.2046863476836623</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08553665097812366</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7322660767612269</v>
+        <v>0.7310273237127632</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.078783797006571</v>
+        <v>-1.083977273097303</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1638940681360337</v>
+        <v>0.1650116217121572</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04390931289023234</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5995668207208511</v>
+        <v>0.5982588108310501</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.021642180845992</v>
+        <v>-1.026603489116332</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1214695307596163</v>
+        <v>0.1223682956778789</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.005827669094816288</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4822158251322783</v>
+        <v>0.4800987694141289</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9614304403893161</v>
+        <v>-0.9650081858520326</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1008183998881512</v>
+        <v>0.102131131835316</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02818020772970983</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3628910095655944</v>
+        <v>0.3617057731672551</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9347390111398597</v>
+        <v>-0.9385190180596633</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0590895789633487</v>
+        <v>0.05996630761391318</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05851834263153549</v>
       </c>
       <c r="E53" t="n">
-        <v>0.203318525067252</v>
+        <v>0.2016673790090076</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9160136926633061</v>
+        <v>-0.9195851420495373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02177588167379459</v>
+        <v>0.02267936864942119</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08522617914343326</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0996158492794775</v>
+        <v>0.09894846517204602</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8690426010550116</v>
+        <v>-0.8723118387699531</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01533634116823303</v>
+        <v>-0.01395750041797362</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1086092285742302</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003452725082733284</v>
+        <v>0.004493151721913039</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8426463003907991</v>
+        <v>-0.8452882914859022</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04331295703023145</v>
+        <v>-0.04207577800088911</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1287581091335121</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0935509253247855</v>
+        <v>-0.09296381619254035</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8407315061297368</v>
+        <v>-0.8433884504064924</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04917145619971261</v>
+        <v>-0.04792640707476377</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1464119842202423</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2261289818928211</v>
+        <v>-0.2269254355681993</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.829328524605474</v>
+        <v>-0.8311842931494875</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09158654946140224</v>
+        <v>-0.08961115546416988</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1624801093465074</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3140001733585533</v>
+        <v>-0.3148721799517539</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7792109687736994</v>
+        <v>-0.7801412140743881</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1237232978609984</v>
+        <v>-0.1215558735309673</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1777857979866768</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4334461883975773</v>
+        <v>-0.4358449935384396</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.832137361727435</v>
+        <v>-0.8338010999386498</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1506327287587549</v>
+        <v>-0.1486494646659161</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1928592952176043</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4947809914973012</v>
+        <v>-0.4962857537772647</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8045998972002795</v>
+        <v>-0.8054010729330215</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.169336797977171</v>
+        <v>-0.1669112345112466</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.207815217248721</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5949185139753297</v>
+        <v>-0.5960785660677282</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8241586588015618</v>
+        <v>-0.8247756742971117</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2021535226371691</v>
+        <v>-0.1998365664906145</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2225711189471652</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6846092715452855</v>
+        <v>-0.6847934317824776</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8659882169501276</v>
+        <v>-0.8662109406557916</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2277234632626987</v>
+        <v>-0.2245628328671269</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2368102730632294</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.76754591306574</v>
+        <v>-0.7685375451121594</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8675520049471399</v>
+        <v>-0.8674890441822878</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2418817652587984</v>
+        <v>-0.2381277296544963</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2506853196564647</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8175761108362823</v>
+        <v>-0.8184685796780599</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.875755792607359</v>
+        <v>-0.8755614012458784</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2686196280723332</v>
+        <v>-0.265289003611661</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2640617301097725</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8956207009277344</v>
+        <v>-0.89573639133315</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8785945360926248</v>
+        <v>-0.878071961744353</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2803775509084493</v>
+        <v>-0.2769335970710434</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2771440281029633</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9245779307023031</v>
+        <v>-0.9237405525297712</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8893490217389118</v>
+        <v>-0.8890397269815762</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2956203520791252</v>
+        <v>-0.2914444793503145</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.289446003654822</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9949302893479587</v>
+        <v>-0.9936844532134492</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8653106017184077</v>
+        <v>-0.8642937853660474</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2896626897050021</v>
+        <v>-0.2848808196144906</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3006231679614599</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.015632575840866</v>
+        <v>-1.014518957312546</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9201793342678284</v>
+        <v>-0.9194718126728038</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3114046158275285</v>
+        <v>-0.3063284041613338</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3102882836510658</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.027761967189609</v>
+        <v>-1.026862415261786</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9011093056037098</v>
+        <v>-0.9002372990105093</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3283190253050257</v>
+        <v>-0.3235403032527568</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3178820426168198</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.032430507903387</v>
+        <v>-1.030478724192974</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.934968030922009</v>
+        <v>-0.9343163870057904</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3283615238213008</v>
+        <v>-0.3232365175623458</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3231096018080742</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9992572679124143</v>
+        <v>-0.9967600865764707</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9785856747923724</v>
+        <v>-0.9783605900580263</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.325216633616942</v>
+        <v>-0.3195533128185021</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3252056624535415</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9372566547243801</v>
+        <v>-0.9332523500797912</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.03668114654046</v>
+        <v>-1.03614912807746</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2986755231935698</v>
+        <v>-0.2926360118251391</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3236907172982224</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8676755654481619</v>
+        <v>-0.8634154826963617</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.074003500935181</v>
+        <v>-1.073431344984588</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3019620751188457</v>
+        <v>-0.2969598423513521</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3179261003452972</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8094368579600365</v>
+        <v>-0.8046628579651315</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.11874184641991</v>
+        <v>-1.119023595842623</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2985621938168362</v>
+        <v>-0.2938747648736028</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3080554009700562</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6861990308577992</v>
+        <v>-0.6811952240711843</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.158838409515924</v>
+        <v>-1.160398262465133</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2678168783204699</v>
+        <v>-0.2622731829752488</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2939760470161899</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5436967837299627</v>
+        <v>-0.537735973317597</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.220750090623604</v>
+        <v>-1.22323704083526</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2380144002777626</v>
+        <v>-0.232273952542379</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2760719779332942</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4238446717576431</v>
+        <v>-0.4172196252760885</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.219780494844883</v>
+        <v>-1.22246341043714</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2002851619401851</v>
+        <v>-0.1945856387019554</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2542148841630378</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2886757797159465</v>
+        <v>-0.2823922953837142</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.252937207635082</v>
+        <v>-1.255652390619326</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1788202631830077</v>
+        <v>-0.1734276736734315</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2287989184900373</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1416844300541605</v>
+        <v>-0.1346485645819465</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.273726065179661</v>
+        <v>-1.277639863724775</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1425328263605416</v>
+        <v>-0.1368506173326461</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1999963664333319</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.844932831164126e-05</v>
+        <v>0.006498452082450115</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.260208388965931</v>
+        <v>-1.264194592390625</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1154061808240456</v>
+        <v>-0.1100214614100759</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1681263234188153</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1541209834118777</v>
+        <v>0.1592349715369837</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299435306497426</v>
+        <v>-1.3040999121634</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09655572782734852</v>
+        <v>-0.09117887850898537</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1333890219188677</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2658448606418005</v>
+        <v>0.2702820205447472</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.304724797754557</v>
+        <v>-1.307930287695086</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02476943776218805</v>
+        <v>-0.01912815323144638</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09613859744442013</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4273675548314345</v>
+        <v>0.4316142584207038</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.282578348717856</v>
+        <v>-1.286753434437106</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01176803982024437</v>
+        <v>-0.00655803652873909</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05756059289294872</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5610143703828333</v>
+        <v>0.5642678679065618</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.283244158806166</v>
+        <v>-1.287640394211959</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06852739761466763</v>
+        <v>0.07468653443631722</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01879101641582987</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6991455664108178</v>
+        <v>0.7025454477128272</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.231214169742011</v>
+        <v>-1.23561748823385</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1084004499954566</v>
+        <v>0.1145281064346802</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.01784432720843474</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8846327017222547</v>
+        <v>0.888780242106882</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.191322229131767</v>
+        <v>-1.195978177692574</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1525013177360593</v>
+        <v>0.1586698986724367</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05015371917398922</v>
       </c>
       <c r="E87" t="n">
-        <v>1.007352676533584</v>
+        <v>1.01160725021846</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.058441960892441</v>
+        <v>-1.061928413246122</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1838762408809459</v>
+        <v>0.1890232834075992</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07516767317392967</v>
       </c>
       <c r="E88" t="n">
-        <v>1.142652212162349</v>
+        <v>1.146782438336642</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9441878479250277</v>
+        <v>-0.9474547246112873</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2156005962707613</v>
+        <v>0.2204548712408526</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09092712480080936</v>
       </c>
       <c r="E89" t="n">
-        <v>1.247398462627546</v>
+        <v>1.251402767272134</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8591711401357743</v>
+        <v>-0.8624813023478697</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2276607307781671</v>
+        <v>0.2324473229260426</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09587155344953535</v>
       </c>
       <c r="E90" t="n">
-        <v>1.325055844015158</v>
+        <v>1.328968855550711</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.742681133006553</v>
+        <v>-0.7464871112418581</v>
       </c>
       <c r="G90" t="n">
-        <v>0.196230716964035</v>
+        <v>0.1991961689885655</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09051834794412572</v>
       </c>
       <c r="E91" t="n">
-        <v>1.317341576301663</v>
+        <v>1.320020556846117</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6008494180243906</v>
+        <v>-0.606086179640958</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1916912458182038</v>
+        <v>0.1943875405729919</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07656553584426075</v>
       </c>
       <c r="E92" t="n">
-        <v>1.304862752707991</v>
+        <v>1.306340756662892</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4691150357053722</v>
+        <v>-0.4745926222474986</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1668705382944133</v>
+        <v>0.1692693434352755</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05683415987714929</v>
       </c>
       <c r="E93" t="n">
-        <v>1.275360912317452</v>
+        <v>1.275489981885399</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.333366904627037</v>
+        <v>-0.3390853160947224</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1604926128149029</v>
+        <v>0.1622869946131857</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03434958089857847</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195082789092875</v>
+        <v>1.194564936801967</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1847228348878852</v>
+        <v>-0.1898100646879291</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1414422593898007</v>
+        <v>0.1438772669704528</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01150672257866794</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162895672081397</v>
+        <v>1.161899317977614</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09183209644432515</v>
+        <v>-0.0971963536097179</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1235173296364284</v>
+        <v>0.1257052162150364</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.009806343162103985</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121794884785993</v>
+        <v>1.121453322636671</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01410726051481764</v>
+        <v>0.009493810470285325</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05609736861375609</v>
+        <v>0.05739750840795046</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02906918417746293</v>
       </c>
       <c r="E97" t="n">
-        <v>1.028058898074295</v>
+        <v>1.026278682448104</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06923728023837424</v>
+        <v>0.06587832343351856</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03195821136948874</v>
+        <v>0.03251541413842918</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04880959833808075</v>
       </c>
       <c r="E98" t="n">
-        <v>1.003370408156693</v>
+        <v>1.001786944920665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1023026999195378</v>
+        <v>0.1001195353982937</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006940523175215157</v>
+        <v>-0.007025520207765395</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06969051662175829</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9781247154701517</v>
+        <v>0.9774431651906285</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1661480635177363</v>
+        <v>0.1654806794103048</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02409260954002875</v>
+        <v>-0.02493785780816722</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09782337915236859</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8875682473834805</v>
+        <v>0.88704724705433</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1550685429229007</v>
+        <v>0.1542248686738836</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03461177932768125</v>
+        <v>-0.03574822113326034</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1307274270711971</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8059884103455872</v>
+        <v>0.8055492590107443</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1426448099984744</v>
+        <v>0.1422418611034214</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06338327484593652</v>
+        <v>-0.06460943574142976</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1759984163755054</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6833707467771423</v>
+        <v>0.6835549070143344</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1370066735059753</v>
+        <v>0.1373907341715727</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08162773048093279</v>
+        <v>-0.08235807535321631</v>
       </c>
     </row>
   </sheetData>
